--- a/Schedules/Dummy Schedule2.xlsx
+++ b/Schedules/Dummy Schedule2.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="101">
   <si>
     <t>Cyclotron</t>
   </si>
@@ -344,22 +344,28 @@
       <patternFill patternType="lightGray"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border/>
+    <border>
+      <right/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -664,707 +670,1227 @@
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="M3" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="J4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="L4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="M4" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="L5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="M5" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="J6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="L6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="M6" s="2" t="s">
+      <c r="M6" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="J7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="L7" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="M7" s="2" t="s">
+      <c r="M7" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="J8" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="L8" s="2" t="s">
+      <c r="L8" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="M8" s="2" t="s">
+      <c r="M8" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="J9" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="L9" s="2" t="s">
+      <c r="L9" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="J10" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="L10" s="2" t="s">
+      <c r="L10" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="M10" s="2" t="s">
+      <c r="M10" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="J11" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="L11" s="2" t="s">
+      <c r="L11" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="M11" s="2" t="s">
+      <c r="M11" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="J12" s="2" t="s">
+      <c r="J12" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="L12" s="2" t="s">
+      <c r="L12" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="F13" s="2" t="s">
+      <c r="F13" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G13" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="J13" s="2" t="s">
+      <c r="J13" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="L13" s="2" t="s">
+      <c r="L13" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="M13" s="2" t="s">
+      <c r="M13" s="1" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="F14" s="2" t="s">
+      <c r="F14" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G14" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J14" s="2" t="s">
+      <c r="J14" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="L14" s="2" t="s">
+      <c r="L14" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="M14" s="2" t="s">
+      <c r="M14" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="F15" s="2" t="s">
+      <c r="F15" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="G15" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="J15" s="2" t="s">
+      <c r="J15" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="L15" s="2" t="s">
+      <c r="L15" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="M15" s="2" t="s">
+      <c r="M15" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="G16" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3" t="s">
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3" t="s">
+      <c r="K16" s="2"/>
+      <c r="L16" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="M16" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="3"/>
-      <c r="S16" s="3"/>
-      <c r="T16" s="3"/>
-      <c r="U16" s="3"/>
-      <c r="V16" s="3"/>
-      <c r="W16" s="3"/>
-      <c r="X16" s="3"/>
-      <c r="Y16" s="3"/>
-      <c r="Z16" s="3"/>
-      <c r="AA16" s="3"/>
-      <c r="AB16" s="3"/>
-      <c r="AC16" s="3"/>
-      <c r="AD16" s="3"/>
-      <c r="AE16" s="3"/>
+      <c r="M16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
+      <c r="W16" s="2"/>
+      <c r="X16" s="2"/>
+      <c r="Y16" s="2"/>
+      <c r="Z16" s="2"/>
+      <c r="AA16" s="2"/>
+      <c r="AB16" s="2"/>
+      <c r="AC16" s="2"/>
+      <c r="AD16" s="2"/>
+      <c r="AE16" s="2"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="G17" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3" t="s">
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3" t="s">
+      <c r="K17" s="2"/>
+      <c r="L17" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="3"/>
-      <c r="S17" s="3"/>
-      <c r="T17" s="3"/>
-      <c r="U17" s="3"/>
-      <c r="V17" s="3"/>
-      <c r="W17" s="3"/>
-      <c r="X17" s="3"/>
-      <c r="Y17" s="3"/>
-      <c r="Z17" s="3"/>
-      <c r="AA17" s="3"/>
-      <c r="AB17" s="3"/>
-      <c r="AC17" s="3"/>
-      <c r="AD17" s="3"/>
-      <c r="AE17" s="3"/>
+      <c r="M17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
+      <c r="V17" s="2"/>
+      <c r="W17" s="2"/>
+      <c r="X17" s="2"/>
+      <c r="Y17" s="2"/>
+      <c r="Z17" s="2"/>
+      <c r="AA17" s="2"/>
+      <c r="AB17" s="2"/>
+      <c r="AC17" s="2"/>
+      <c r="AD17" s="2"/>
+      <c r="AE17" s="2"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="F18" s="3" t="s">
+      <c r="F18" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="G18" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3" t="s">
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3" t="s">
+      <c r="K18" s="2"/>
+      <c r="L18" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="M18" s="3" t="s">
+      <c r="M18" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="3"/>
-      <c r="S18" s="3"/>
-      <c r="T18" s="3"/>
-      <c r="U18" s="3"/>
-      <c r="V18" s="3"/>
-      <c r="W18" s="3"/>
-      <c r="X18" s="3"/>
-      <c r="Y18" s="3"/>
-      <c r="Z18" s="3"/>
-      <c r="AA18" s="3"/>
-      <c r="AB18" s="3"/>
-      <c r="AC18" s="3"/>
-      <c r="AD18" s="3"/>
-      <c r="AE18" s="3"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+      <c r="U18" s="2"/>
+      <c r="V18" s="2"/>
+      <c r="W18" s="2"/>
+      <c r="X18" s="2"/>
+      <c r="Y18" s="2"/>
+      <c r="Z18" s="2"/>
+      <c r="AA18" s="2"/>
+      <c r="AB18" s="2"/>
+      <c r="AC18" s="2"/>
+      <c r="AD18" s="2"/>
+      <c r="AE18" s="2"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="F19" s="3" t="s">
+      <c r="F19" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="G19" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3" t="s">
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3" t="s">
+      <c r="K19" s="2"/>
+      <c r="L19" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="M19" s="3" t="s">
+      <c r="M19" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="3"/>
-      <c r="S19" s="3"/>
-      <c r="T19" s="3"/>
-      <c r="U19" s="3"/>
-      <c r="V19" s="3"/>
-      <c r="W19" s="3"/>
-      <c r="X19" s="3"/>
-      <c r="Y19" s="3"/>
-      <c r="Z19" s="3"/>
-      <c r="AA19" s="3"/>
-      <c r="AB19" s="3"/>
-      <c r="AC19" s="3"/>
-      <c r="AD19" s="3"/>
-      <c r="AE19" s="3"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="2"/>
+      <c r="W19" s="2"/>
+      <c r="X19" s="2"/>
+      <c r="Y19" s="2"/>
+      <c r="Z19" s="2"/>
+      <c r="AA19" s="2"/>
+      <c r="AB19" s="2"/>
+      <c r="AC19" s="2"/>
+      <c r="AD19" s="2"/>
+      <c r="AE19" s="2"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="F20" s="3" t="s">
+      <c r="F20" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="G20" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3" t="s">
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3" t="s">
+      <c r="K20" s="2"/>
+      <c r="L20" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="3"/>
-      <c r="S20" s="3"/>
-      <c r="T20" s="3"/>
-      <c r="U20" s="3"/>
-      <c r="V20" s="3"/>
-      <c r="W20" s="3"/>
-      <c r="X20" s="3"/>
-      <c r="Y20" s="3"/>
-      <c r="Z20" s="3"/>
-      <c r="AA20" s="3"/>
-      <c r="AB20" s="3"/>
-      <c r="AC20" s="3"/>
-      <c r="AD20" s="3"/>
-      <c r="AE20" s="3"/>
+      <c r="M20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="2"/>
+      <c r="V20" s="2"/>
+      <c r="W20" s="2"/>
+      <c r="X20" s="2"/>
+      <c r="Y20" s="2"/>
+      <c r="Z20" s="2"/>
+      <c r="AA20" s="2"/>
+      <c r="AB20" s="2"/>
+      <c r="AC20" s="2"/>
+      <c r="AD20" s="2"/>
+      <c r="AE20" s="2"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="F21" s="3" t="s">
+      <c r="F21" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="G21" s="3" t="s">
+      <c r="G21" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3" t="s">
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="3"/>
-      <c r="R21" s="3"/>
-      <c r="S21" s="3"/>
-      <c r="T21" s="3"/>
-      <c r="U21" s="3"/>
-      <c r="V21" s="3"/>
-      <c r="W21" s="3"/>
-      <c r="X21" s="3"/>
-      <c r="Y21" s="3"/>
-      <c r="Z21" s="3"/>
-      <c r="AA21" s="3"/>
-      <c r="AB21" s="3"/>
-      <c r="AC21" s="3"/>
-      <c r="AD21" s="3"/>
-      <c r="AE21" s="3"/>
+      <c r="M21" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2"/>
+      <c r="U21" s="2"/>
+      <c r="V21" s="2"/>
+      <c r="W21" s="2"/>
+      <c r="X21" s="2"/>
+      <c r="Y21" s="2"/>
+      <c r="Z21" s="2"/>
+      <c r="AA21" s="2"/>
+      <c r="AB21" s="2"/>
+      <c r="AC21" s="2"/>
+      <c r="AD21" s="2"/>
+      <c r="AE21" s="2"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="F22" s="3" t="s">
+      <c r="F22" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="G22" s="3" t="s">
+      <c r="G22" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3" t="s">
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3" t="s">
+      <c r="K22" s="2"/>
+      <c r="L22" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="M22" s="3" t="s">
+      <c r="M22" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="3"/>
-      <c r="R22" s="3"/>
-      <c r="S22" s="3"/>
-      <c r="T22" s="3"/>
-      <c r="U22" s="3"/>
-      <c r="V22" s="3"/>
-      <c r="W22" s="3"/>
-      <c r="X22" s="3"/>
-      <c r="Y22" s="3"/>
-      <c r="Z22" s="3"/>
-      <c r="AA22" s="3"/>
-      <c r="AB22" s="3"/>
-      <c r="AC22" s="3"/>
-      <c r="AD22" s="3"/>
-      <c r="AE22" s="3"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+      <c r="U22" s="2"/>
+      <c r="V22" s="2"/>
+      <c r="W22" s="2"/>
+      <c r="X22" s="2"/>
+      <c r="Y22" s="2"/>
+      <c r="Z22" s="2"/>
+      <c r="AA22" s="2"/>
+      <c r="AB22" s="2"/>
+      <c r="AC22" s="2"/>
+      <c r="AD22" s="2"/>
+      <c r="AE22" s="2"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="F23" s="3" t="s">
+      <c r="F23" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="G23" s="3" t="s">
+      <c r="G23" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3" t="s">
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3" t="s">
+      <c r="K23" s="2"/>
+      <c r="L23" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="M23" s="3" t="s">
+      <c r="M23" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
-      <c r="P23" s="3"/>
-      <c r="Q23" s="3"/>
-      <c r="R23" s="3"/>
-      <c r="S23" s="3"/>
-      <c r="T23" s="3"/>
-      <c r="U23" s="3"/>
-      <c r="V23" s="3"/>
-      <c r="W23" s="3"/>
-      <c r="X23" s="3"/>
-      <c r="Y23" s="3"/>
-      <c r="Z23" s="3"/>
-      <c r="AA23" s="3"/>
-      <c r="AB23" s="3"/>
-      <c r="AC23" s="3"/>
-      <c r="AD23" s="3"/>
-      <c r="AE23" s="3"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
+      <c r="U23" s="2"/>
+      <c r="V23" s="2"/>
+      <c r="W23" s="2"/>
+      <c r="X23" s="2"/>
+      <c r="Y23" s="2"/>
+      <c r="Z23" s="2"/>
+      <c r="AA23" s="2"/>
+      <c r="AB23" s="2"/>
+      <c r="AC23" s="2"/>
+      <c r="AD23" s="2"/>
+      <c r="AE23" s="2"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="F24" s="3" t="s">
+      <c r="F24" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="G24" s="3" t="s">
+      <c r="G24" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3" t="s">
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="3"/>
-      <c r="R24" s="3"/>
-      <c r="S24" s="3"/>
-      <c r="T24" s="3"/>
-      <c r="U24" s="3"/>
-      <c r="V24" s="3"/>
-      <c r="W24" s="3"/>
-      <c r="X24" s="3"/>
-      <c r="Y24" s="3"/>
-      <c r="Z24" s="3"/>
-      <c r="AA24" s="3"/>
-      <c r="AB24" s="3"/>
-      <c r="AC24" s="3"/>
-      <c r="AD24" s="3"/>
-      <c r="AE24" s="3"/>
+      <c r="M24" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="2"/>
+      <c r="T24" s="2"/>
+      <c r="U24" s="2"/>
+      <c r="V24" s="2"/>
+      <c r="W24" s="2"/>
+      <c r="X24" s="2"/>
+      <c r="Y24" s="2"/>
+      <c r="Z24" s="2"/>
+      <c r="AA24" s="2"/>
+      <c r="AB24" s="2"/>
+      <c r="AC24" s="2"/>
+      <c r="AD24" s="2"/>
+      <c r="AE24" s="2"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="F25" s="3" t="s">
+      <c r="F25" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="G25" s="3" t="s">
+      <c r="G25" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3" t="s">
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3" t="s">
+      <c r="K25" s="2"/>
+      <c r="L25" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="M25" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
-      <c r="P25" s="3"/>
-      <c r="Q25" s="3"/>
-      <c r="R25" s="3"/>
-      <c r="S25" s="3"/>
-      <c r="T25" s="3"/>
-      <c r="U25" s="3"/>
-      <c r="V25" s="3"/>
-      <c r="W25" s="3"/>
-      <c r="X25" s="3"/>
-      <c r="Y25" s="3"/>
-      <c r="Z25" s="3"/>
-      <c r="AA25" s="3"/>
-      <c r="AB25" s="3"/>
-      <c r="AC25" s="3"/>
-      <c r="AD25" s="3"/>
-      <c r="AE25" s="3"/>
+      <c r="M25" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="2"/>
+      <c r="T25" s="2"/>
+      <c r="U25" s="2"/>
+      <c r="V25" s="2"/>
+      <c r="W25" s="2"/>
+      <c r="X25" s="2"/>
+      <c r="Y25" s="2"/>
+      <c r="Z25" s="2"/>
+      <c r="AA25" s="2"/>
+      <c r="AB25" s="2"/>
+      <c r="AC25" s="2"/>
+      <c r="AD25" s="2"/>
+      <c r="AE25" s="2"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="F26" s="2" t="s">
+      <c r="F26" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="G26" s="2" t="s">
+      <c r="G26" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="I26" s="2" t="s">
+      <c r="I26" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="J26" s="2" t="s">
+      <c r="J26" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="L26" s="2" t="s">
+      <c r="L26" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="M26" s="2" t="s">
+      <c r="M26" s="1" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="F27" s="2" t="s">
+      <c r="F27" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="G27" s="2" t="s">
+      <c r="G27" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="J27" s="2" t="s">
+      <c r="J27" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="L27" s="2" t="s">
+      <c r="L27" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="M27" s="2" t="s">
+      <c r="M27" s="1" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="F28" s="2" t="s">
+      <c r="F28" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="G28" s="2" t="s">
+      <c r="G28" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="J28" s="2" t="s">
+      <c r="J28" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="L28" s="2" t="s">
+      <c r="L28" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="M28" s="2" t="s">
+      <c r="M28" s="1" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="F29" s="2" t="s">
+      <c r="F29" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="G29" s="2" t="s">
+      <c r="G29" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="J29" s="2" t="s">
+      <c r="J29" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="L29" s="2" t="s">
+      <c r="L29" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="M29" s="2" t="s">
+      <c r="M29" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="30" ht="15.75" customHeight="1"/>
-    <row r="31" ht="15.75" customHeight="1"/>
-    <row r="32" ht="15.75" customHeight="1"/>
-    <row r="33" ht="15.75" customHeight="1"/>
-    <row r="34" ht="15.75" customHeight="1"/>
-    <row r="35" ht="15.75" customHeight="1"/>
-    <row r="36" ht="15.75" customHeight="1"/>
-    <row r="37" ht="15.75" customHeight="1"/>
-    <row r="38" ht="15.75" customHeight="1"/>
-    <row r="39" ht="15.75" customHeight="1"/>
-    <row r="40" ht="15.75" customHeight="1"/>
-    <row r="41" ht="15.75" customHeight="1"/>
-    <row r="42" ht="15.75" customHeight="1"/>
-    <row r="43" ht="15.75" customHeight="1"/>
-    <row r="44" ht="15.75" customHeight="1"/>
-    <row r="45" ht="15.75" customHeight="1"/>
-    <row r="46" ht="15.75" customHeight="1"/>
-    <row r="47" ht="15.75" customHeight="1"/>
-    <row r="48" ht="15.75" customHeight="1"/>
-    <row r="49" ht="15.75" customHeight="1"/>
-    <row r="50" ht="15.75" customHeight="1"/>
-    <row r="51" ht="15.75" customHeight="1"/>
-    <row r="52" ht="15.75" customHeight="1"/>
-    <row r="53" ht="15.75" customHeight="1"/>
-    <row r="54" ht="15.75" customHeight="1"/>
-    <row r="55" ht="15.75" customHeight="1"/>
-    <row r="56" ht="15.75" customHeight="1"/>
-    <row r="57" ht="15.75" customHeight="1"/>
+    <row r="30" ht="15.75" customHeight="1">
+      <c r="F30" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" ht="15.75" customHeight="1">
+      <c r="F31" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" ht="15.75" customHeight="1">
+      <c r="F32" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" ht="15.75" customHeight="1">
+      <c r="F33" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" ht="15.75" customHeight="1">
+      <c r="F34" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M34" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" ht="15.75" customHeight="1">
+      <c r="F35" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M35" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" ht="15.75" customHeight="1">
+      <c r="F36" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M36" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" ht="15.75" customHeight="1">
+      <c r="F37" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M37" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38" ht="15.75" customHeight="1">
+      <c r="F38" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="M38" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="39" ht="15.75" customHeight="1">
+      <c r="F39" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K39" s="3"/>
+      <c r="L39" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="M39" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="40" ht="15.75" customHeight="1">
+      <c r="F40" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M40" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="41" ht="15.75" customHeight="1">
+      <c r="F41" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K41" s="3"/>
+      <c r="L41" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="42" ht="15.75" customHeight="1">
+      <c r="F42" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="K42" s="3"/>
+      <c r="L42" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M42" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="43" ht="15.75" customHeight="1">
+      <c r="F43" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="K43" s="3"/>
+      <c r="L43" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="44" ht="15.75" customHeight="1">
+      <c r="F44" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K44" s="3"/>
+      <c r="L44" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M44" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="45" ht="15.75" customHeight="1">
+      <c r="F45" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K45" s="3"/>
+      <c r="L45" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="46" ht="15.75" customHeight="1">
+      <c r="F46" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K46" s="3"/>
+      <c r="L46" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="47" ht="15.75" customHeight="1">
+      <c r="F47" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K47" s="3"/>
+      <c r="L47" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M47" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="48" ht="15.75" customHeight="1">
+      <c r="F48" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
+      <c r="J48" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K48" s="3"/>
+      <c r="L48" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="49" ht="15.75" customHeight="1">
+      <c r="F49" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H49" s="3"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="K49" s="3"/>
+      <c r="L49" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M49" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="50" ht="15.75" customHeight="1">
+      <c r="F50" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H50" s="3"/>
+      <c r="I50" s="3"/>
+      <c r="J50" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="K50" s="3"/>
+      <c r="L50" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="M50" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="51" ht="15.75" customHeight="1">
+      <c r="F51" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H51" s="3"/>
+      <c r="I51" s="3"/>
+      <c r="J51" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K51" s="3"/>
+      <c r="L51" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M51" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="52" ht="15.75" customHeight="1">
+      <c r="F52" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H52" s="3"/>
+      <c r="I52" s="3"/>
+      <c r="J52" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K52" s="3"/>
+      <c r="L52" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="53" ht="15.75" customHeight="1">
+      <c r="F53" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H53" s="3"/>
+      <c r="I53" s="3"/>
+      <c r="J53" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K53" s="3"/>
+      <c r="L53" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="M53" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="54" ht="15.75" customHeight="1">
+      <c r="F54" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H54" s="3"/>
+      <c r="I54" s="3"/>
+      <c r="J54" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K54" s="3"/>
+      <c r="L54" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M54" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="55" ht="15.75" customHeight="1">
+      <c r="F55" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H55" s="3"/>
+      <c r="I55" s="3"/>
+      <c r="J55" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K55" s="3"/>
+      <c r="L55" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M55" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="56" ht="15.75" customHeight="1">
+      <c r="F56" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H56" s="3"/>
+      <c r="I56" s="3"/>
+      <c r="J56" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="K56" s="3"/>
+      <c r="L56" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M56" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="57" ht="15.75" customHeight="1">
+      <c r="F57" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H57" s="3"/>
+      <c r="I57" s="3"/>
+      <c r="J57" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="K57" s="3"/>
+      <c r="L57" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="M57" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
     <row r="58" ht="15.75" customHeight="1"/>
     <row r="59" ht="15.75" customHeight="1"/>
     <row r="60" ht="15.75" customHeight="1"/>
@@ -1760,6 +2286,554 @@
     <row r="450" ht="15.75" customHeight="1"/>
     <row r="451" ht="15.75" customHeight="1"/>
     <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <printOptions/>
   <pageMargins bottom="1.0" footer="0.0" header="0.0" left="0.75" right="0.75" top="1.0"/>
